--- a/biology/Botanique/Syagrus/Syagrus.xlsx
+++ b/biology/Botanique/Syagrus/Syagrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus est un genre de palmiers appartenant à la famille des Arécacées. Parmi les espèces de Syagrus, on trouve le Palmier Pindó ou Ybá pitá (Syagrus romanzoffiana).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des palmiers de forme très variable, cespiteux, acaules, monocaules, petits ou grands. Leurs feuilles pennées sont régulièrement divisées. Les pinnules sont insérées en groupe, disposées sur plusieurs plans, et dotées de nervures proéminentes.
 Les fleurs sont unisexuées et leurs fruits sont de taille moyenne à longue, et de forme allongée. Ils se regroupent en une masse cylindrique.
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils poussent souvent dans les savanes et forêts tropicales sèches. Principalement en Amérique du Sud.
 </t>
@@ -607,7 +625,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Syagrus amara (Jacq.) Mart. in A.D.d'Orbigny, Voy. Amér. Mér. 7(3): 132 (1847).
 Syagrus botryophora (Mart.) Mart. in A.D.d'Orbigny, Voy. Amér. Mér. 7(3): 133 (1847).
@@ -624,9 +644,9 @@
 Syagrus glaucescens Glaz. ex Becc., Agric. Colon. 10: 470 (1916).
 Syagrus graminifolia (Drude) Becc., Agric. Colon. 10: 466 (1916).
 Syagrus harleyi Glassman, Phytologia 39: 401 (1978).
-Syagrus hoehnei Burret, Notizbl. Bot. Gart. Berlin-Dahlem 13: 678 (1937)[1],[2].
+Syagrus hoehnei Burret, Notizbl. Bot. Gart. Berlin-Dahlem 13: 678 (1937),.
 Syagrus inajai (Spruce) Becc., Agric. Colon. 10: 467 (1916).
-Syagrus insignis (Rob.) Becc., Agric. Colon. 10: 467 (1916)[1].
+Syagrus insignis (Rob.) Becc., Agric. Colon. 10: 467 (1916).
 Syagrus leptospatha Burret, Notizbl. Bot. Gart. Berlin-Dahlem 15: 105 (1940).
 Syagrus macrocarpa Barb.Rodr., Prot.-App. Enum. Palm. Nov.: 46 (1879).
 Syagrus × matafome (Bondar) A.D.Hawkes, Arq. Bot. Estado São Paulo, n.s., f.m., 2: 178 (1952).
@@ -645,10 +665,10 @@
 Syagrus × tostana (Bondar) Glassman, Rhodora 65: 261 (1963).
 Syagrus vagans (Bondar) A.D.Hawkes, Arq. Bot. Estado São Paulo, n.s., f.m., 2: 178 (1952).
 Syagrus vermicularis Noblick, Palms (1999+) 48: 111 (2004).
-Syagrus weddelliana (H.Wendl.) Becc., Agric. Colon. 10: 468 (1916)[1].
+Syagrus weddelliana (H.Wendl.) Becc., Agric. Colon. 10: 468 (1916).
 Syagrus werdermannii Burret, Repert. Spec. Nov. Regni Veg. 32: 109 (1933).
 Syagrus yungasensis M.Moraes, Novon 6: 89 (1996).
-Liste complète selon PoWo au 21 décembre 2021 [3]  
+Liste complète selon PoWo au 21 décembre 2021   
 Syagrus allagopteroides		Noblick &amp; Lorenzi	
 Syagrus amara		(Jacq.) Mart.	
 Syagrus amicorum 		K.Soares &amp; C.A.Guim.	
@@ -716,7 +736,43 @@
 Syagrus weddelliana		 (H.Wendl.) Becc.	
 Syagrus werdermannii		 Burret	
 Syagrus yungasensis 		M.Moraes	
-Hybrides acceptés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syagrus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syagrus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hybrides acceptés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Syagrus × altopalacioensis		 K.Soares &amp; L.C.Assis	
 Syagrus × andrequiceana		 K.Soares &amp; L.C.Assis	
 Syagrus × campos-portoana 		(Bondar) Glassman	
@@ -727,7 +783,7 @@
 Syagrus × mirandana		Noblick	
 Syagrus × serroana		K.Soares &amp; L.C.Assis	
 Syagrus × teixeirana 		Glassman	
-Syagrus × tostana 		(Bondar) Glassman	 [3]
+Syagrus × tostana 		(Bondar) Glassman	 
 </t>
         </is>
       </c>
